--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value432.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value432.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.135736054089821</v>
+        <v>1.252593755722046</v>
       </c>
       <c r="B1">
-        <v>1.928128432027055</v>
+        <v>2.634604454040527</v>
       </c>
       <c r="C1">
-        <v>2.081828339179744</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.408882425270767</v>
+        <v>1.697762370109558</v>
       </c>
       <c r="E1">
-        <v>1.48156060003174</v>
+        <v>1.134664297103882</v>
       </c>
     </row>
   </sheetData>
